--- a/bolao_final.xlsx
+++ b/bolao_final.xlsx
@@ -5,17 +5,18 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Giovanni\Documents\Projeto Bolao\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Giovanni\Documents\Projeto Bolao\Bolao\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E49E452E-A2C7-4E36-825B-BFD6CA93C94A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65679E8B-710B-4929-B9B8-A4940BF8DFFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="class" sheetId="2" r:id="rId2"/>
-    <sheet name="art" sheetId="3" r:id="rId3"/>
+    <sheet name="depara" sheetId="4" r:id="rId3"/>
+    <sheet name="art" sheetId="3" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$C$188</definedName>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="424" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="466" uniqueCount="58">
   <si>
     <t>Nome</t>
   </si>
@@ -191,6 +192,27 @@
   </si>
   <si>
     <t>Vasco</t>
+  </si>
+  <si>
+    <t>Vasco da Gama S.a.f.</t>
+  </si>
+  <si>
+    <t>Santos Fc</t>
+  </si>
+  <si>
+    <t>Fortaleza Ec Saf</t>
+  </si>
+  <si>
+    <t>Cruzeiro Saf</t>
+  </si>
+  <si>
+    <t>Atlético Mineiro Saf</t>
+  </si>
+  <si>
+    <t>para</t>
+  </si>
+  <si>
+    <t>De</t>
   </si>
 </sst>
 </file>
@@ -563,8 +585,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C188"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B189" sqref="B189"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B188"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2652,7 +2674,7 @@
   <dimension ref="A1:B21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="A2" sqref="A2:A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2834,6 +2856,192 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96A5A6E6-147B-43A2-8938-B1C572CD16EA}">
+  <dimension ref="A1:B21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="18.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>54</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>40</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>53</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>37</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>32</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>29</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>34</v>
+      </c>
+      <c r="B16" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>52</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>33</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>28</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>51</v>
+      </c>
+      <c r="B20" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>27</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE7ABDD8-1958-410E-A51E-1BA3F1739797}">
   <dimension ref="A1:C7"/>
   <sheetViews>
